--- a/acompanhamento_avaliacoes.xlsx
+++ b/acompanhamento_avaliacoes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="11000" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="-20" windowWidth="16420" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A4:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
